--- a/LF/TAS/Nigeria/2024/nov 2024/Sokoto & Kaduna/ng_lf_tas_2411_1_sit_part_sk_kd.xlsx
+++ b/LF/TAS/Nigeria/2024/nov 2024/Sokoto & Kaduna/ng_lf_tas_2411_1_sit_part_sk_kd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\nov 2024\Sokoto &amp; Kaduna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D35C7E-7BCE-4A24-9855-B28A4D7B74E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083BF48C-98B8-48C1-9D14-154891D58902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3367,12 +3367,6 @@
     <t>ACHIDA DAN GALADIMA PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>IHIYA'US SUNNA ACHIDA</t>
-  </si>
-  <si>
-    <t>SULTAN SA'AD ABUBAKAR ISLAMIYA SCHOOL</t>
-  </si>
-  <si>
     <t>ALELA PRIMARY SCHOOL (AJOGAL)</t>
   </si>
   <si>
@@ -3433,9 +3427,6 @@
     <t>DANTAYAWA PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>DARUL IQRA'A COMPREHENSIVE COLLEGE ZARIA</t>
-  </si>
-  <si>
     <t>DUHUWAR GUMSA PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3445,9 +3436,6 @@
     <t>LGEA CENTRAL DUTSEN WAI PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>GIDAN-BA'ARE PRIMARY SCHOOL</t>
-  </si>
-  <si>
     <t>GIDAN DANBUKkUI PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3466,18 +3454,12 @@
     <t>GIDAN-KARE NOMADIC PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>GI'ERE PRIMARY SCHOOL</t>
-  </si>
-  <si>
     <t>GINJO PRIMARY SCHOOL (034)</t>
   </si>
   <si>
     <t>GUMAINIYA PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>HAMMA'ALI NIZZANIYYA ISLAMIYYA PRIMARY SCHOOL</t>
-  </si>
-  <si>
     <t>LGEA GRA SABON GARI PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3508,9 +3490,6 @@
     <t>KWARAKA PRIMARY SCHOOL (037)</t>
   </si>
   <si>
-    <t>AL-HUFFA'AZH ACADEMY SAMINAKA</t>
-  </si>
-  <si>
     <t>LOFA PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3523,9 +3502,6 @@
     <t>LGEA MADAUCHI (1) PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>MALJA'U SUNNA ISLAMIYYA WURNO</t>
-  </si>
-  <si>
     <t>LGEA MAIGANA GARI PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3571,9 +3547,6 @@
     <t>SABRO MODEL PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>AHMAD RUFA'I MODEL PRIMARY SCHOOL</t>
-  </si>
-  <si>
     <t>LGEA MODEL SOBA PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3601,9 +3574,6 @@
     <t>LGEA TURAWA PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>JAMA'ATUL NASARUL ISLAMYYA TURETA</t>
-  </si>
-  <si>
     <t>LGEA UNG RIMI MAIGANA</t>
   </si>
   <si>
@@ -3616,9 +3586,6 @@
     <t>WUMUMU PRIMARY SCHOOL</t>
   </si>
   <si>
-    <t>TARBIYYA WA ULUMUL QUR'AN HUBBARE ISLAMIYYA</t>
-  </si>
-  <si>
     <t>LGEA YADIN GARU NOMADIC PRIMARY SCHOOL</t>
   </si>
   <si>
@@ -3683,6 +3650,39 @@
   </si>
   <si>
     <t>ng_lf_tas_2411_1_sit_part_sk_kd_v2_4</t>
+  </si>
+  <si>
+    <t>IHIYA US SUNNA ACHIDA</t>
+  </si>
+  <si>
+    <t>SULTAN SA AD ABUBAKAR ISLAMIYA SCHOOL</t>
+  </si>
+  <si>
+    <t>DARUL IQRA A COMPREHENSIVE COLLEGE ZARIA</t>
+  </si>
+  <si>
+    <t>GIDAN-BA ARE PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>GI ERE PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>HAMMA ALI NIZZANIYYA ISLAMIYYA PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>AL-HUFFA AZH ACADEMY SAMINAKA</t>
+  </si>
+  <si>
+    <t>MALJA U SUNNA ISLAMIYYA WURNO</t>
+  </si>
+  <si>
+    <t>AHMAD RUFA I MODEL PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>JAMA ATUL NASARUL ISLAMYYA TURETA</t>
+  </si>
+  <si>
+    <t>TARBIYYA WA ULUMUL QUR AN HUBBARE ISLAMIYYA</t>
   </si>
 </sst>
 </file>
@@ -4959,7 +4959,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>80</v>
@@ -5250,9 +5250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2088"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2031" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2066" sqref="F2066"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1559" sqref="G1559:G2088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12898,10 +12898,10 @@
         <v>150</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1110</v>
+        <v>1205</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1110</v>
+        <v>1205</v>
       </c>
       <c r="F562" s="3" t="s">
         <v>446</v>
@@ -12982,10 +12982,10 @@
         <v>150</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1111</v>
+        <v>1206</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1111</v>
+        <v>1206</v>
       </c>
       <c r="F568" s="3" t="s">
         <v>446</v>
@@ -13066,10 +13066,10 @@
         <v>150</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F574" s="3" t="s">
         <v>258</v>
@@ -13122,10 +13122,10 @@
         <v>150</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F578" s="3" t="s">
         <v>1071</v>
@@ -13150,10 +13150,10 @@
         <v>150</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F580" s="3" t="s">
         <v>1031</v>
@@ -13164,10 +13164,10 @@
         <v>150</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F581" s="3" t="s">
         <v>1032</v>
@@ -13178,10 +13178,10 @@
         <v>150</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F582" s="3" t="s">
         <v>1032</v>
@@ -13220,10 +13220,10 @@
         <v>150</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F585" s="3" t="s">
         <v>1043</v>
@@ -13276,10 +13276,10 @@
         <v>150</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F589" s="3" t="s">
         <v>1044</v>
@@ -13430,10 +13430,10 @@
         <v>150</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F600" s="3" t="s">
         <v>1072</v>
@@ -13570,10 +13570,10 @@
         <v>150</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F610" s="3" t="s">
         <v>1073</v>
@@ -13584,10 +13584,10 @@
         <v>150</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F611" s="3" t="s">
         <v>1074</v>
@@ -13710,10 +13710,10 @@
         <v>150</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F620" s="3" t="s">
         <v>1017</v>
@@ -13724,10 +13724,10 @@
         <v>150</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F621" s="3" t="s">
         <v>1017</v>
@@ -13738,10 +13738,10 @@
         <v>150</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F622" s="3" t="s">
         <v>1050</v>
@@ -13766,10 +13766,10 @@
         <v>150</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F624" s="3" t="s">
         <v>961</v>
@@ -13822,10 +13822,10 @@
         <v>150</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F628" s="3" t="s">
         <v>1033</v>
@@ -13962,10 +13962,10 @@
         <v>150</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F638" s="3" t="s">
         <v>1052</v>
@@ -14032,10 +14032,10 @@
         <v>150</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F643" s="3" t="s">
         <v>183</v>
@@ -14256,10 +14256,10 @@
         <v>150</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F659" s="3" t="s">
         <v>1029</v>
@@ -14382,10 +14382,10 @@
         <v>150</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F668" s="3" t="s">
         <v>1081</v>
@@ -14452,10 +14452,10 @@
         <v>150</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F673" s="3" t="s">
         <v>1082</v>
@@ -14564,10 +14564,10 @@
         <v>150</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1132</v>
+        <v>1207</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>1132</v>
+        <v>1207</v>
       </c>
       <c r="F681" s="3" t="s">
         <v>798</v>
@@ -14662,10 +14662,10 @@
         <v>150</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F688" s="3" t="s">
         <v>1093</v>
@@ -14676,10 +14676,10 @@
         <v>150</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F689" s="3" t="s">
         <v>1083</v>
@@ -14718,10 +14718,10 @@
         <v>150</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F692" s="3" t="s">
         <v>688</v>
@@ -15054,10 +15054,10 @@
         <v>150</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1136</v>
+        <v>1208</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>1136</v>
+        <v>1208</v>
       </c>
       <c r="F716" s="3" t="s">
         <v>359</v>
@@ -15110,10 +15110,10 @@
         <v>150</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F720" s="3" t="s">
         <v>548</v>
@@ -15124,10 +15124,10 @@
         <v>150</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F721" s="3" t="s">
         <v>1084</v>
@@ -15138,10 +15138,10 @@
         <v>150</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F722" s="3" t="s">
         <v>1095</v>
@@ -15194,10 +15194,10 @@
         <v>150</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F726" s="3" t="s">
         <v>1085</v>
@@ -15264,10 +15264,10 @@
         <v>150</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F731" s="3" t="s">
         <v>471</v>
@@ -15278,10 +15278,10 @@
         <v>150</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="F732" s="3" t="s">
         <v>1087</v>
@@ -15460,10 +15460,10 @@
         <v>150</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1143</v>
+        <v>1209</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>1143</v>
+        <v>1209</v>
       </c>
       <c r="F745" s="3" t="s">
         <v>652</v>
@@ -15516,10 +15516,10 @@
         <v>150</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F749" s="3" t="s">
         <v>1014</v>
@@ -15558,10 +15558,10 @@
         <v>150</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="F752" s="3" t="s">
         <v>1088</v>
@@ -15712,10 +15712,10 @@
         <v>150</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1146</v>
+        <v>1210</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>1146</v>
+        <v>1210</v>
       </c>
       <c r="F763" s="3" t="s">
         <v>515</v>
@@ -15754,10 +15754,10 @@
         <v>150</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F766" s="3" t="s">
         <v>1055</v>
@@ -15838,10 +15838,10 @@
         <v>150</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="F772" s="3" t="s">
         <v>946</v>
@@ -16048,10 +16048,10 @@
         <v>150</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F787" s="3" t="s">
         <v>966</v>
@@ -16132,10 +16132,10 @@
         <v>150</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="F793" s="3" t="s">
         <v>1096</v>
@@ -16482,10 +16482,10 @@
         <v>150</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F818" s="3" t="s">
         <v>1039</v>
@@ -16664,10 +16664,10 @@
         <v>150</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>1089</v>
@@ -16916,10 +16916,10 @@
         <v>150</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F849" s="3" t="s">
         <v>677</v>
@@ -16930,10 +16930,10 @@
         <v>150</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>1075</v>
@@ -16986,10 +16986,10 @@
         <v>150</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F854" s="3" t="s">
         <v>1076</v>
@@ -17098,10 +17098,10 @@
         <v>150</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="F862" s="3" t="s">
         <v>321</v>
@@ -17308,10 +17308,10 @@
         <v>150</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="F877" s="3" t="s">
         <v>745</v>
@@ -17322,10 +17322,10 @@
         <v>150</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="F878" s="3" t="s">
         <v>363</v>
@@ -17350,10 +17350,10 @@
         <v>150</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="F880" s="3" t="s">
         <v>1104</v>
@@ -17364,10 +17364,10 @@
         <v>150</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="F881" s="3" t="s">
         <v>1105</v>
@@ -17392,10 +17392,10 @@
         <v>150</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="F883" s="3" t="s">
         <v>1106</v>
@@ -17434,10 +17434,10 @@
         <v>150</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>486</v>
@@ -17490,10 +17490,10 @@
         <v>150</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F890" s="3" t="s">
         <v>1063</v>
@@ -17784,10 +17784,10 @@
         <v>150</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>1040</v>
@@ -17952,10 +17952,10 @@
         <v>150</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F923" s="3" t="s">
         <v>964</v>
@@ -18120,10 +18120,10 @@
         <v>150</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F935" s="3" t="s">
         <v>925</v>
@@ -18134,10 +18134,10 @@
         <v>150</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F936" s="3" t="s">
         <v>925</v>
@@ -18344,10 +18344,10 @@
         <v>150</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="F951" s="3" t="s">
         <v>1064</v>
@@ -18540,10 +18540,10 @@
         <v>150</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="F965" s="3" t="s">
         <v>330</v>
@@ -18652,10 +18652,10 @@
         <v>150</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="F973" s="3" t="s">
         <v>1065</v>
@@ -18708,10 +18708,10 @@
         <v>150</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F977" s="3" t="s">
         <v>282</v>
@@ -18722,10 +18722,10 @@
         <v>150</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F978" s="3" t="s">
         <v>301</v>
@@ -18792,10 +18792,10 @@
         <v>150</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F983" s="3" t="s">
         <v>778</v>
@@ -18834,10 +18834,10 @@
         <v>150</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="F986" s="3" t="s">
         <v>645</v>
@@ -18848,10 +18848,10 @@
         <v>150</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F987" s="3" t="s">
         <v>950</v>
@@ -18862,10 +18862,10 @@
         <v>150</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F988" s="3" t="s">
         <v>950</v>
@@ -18876,10 +18876,10 @@
         <v>150</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F989" s="3" t="s">
         <v>1077</v>
@@ -18946,10 +18946,10 @@
         <v>150</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>1178</v>
+        <v>1213</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>1178</v>
+        <v>1213</v>
       </c>
       <c r="F994" s="3" t="s">
         <v>211</v>
@@ -18974,10 +18974,10 @@
         <v>150</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="F996" s="3" t="s">
         <v>969</v>
@@ -19044,10 +19044,10 @@
         <v>150</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="F1001" s="3" t="s">
         <v>1078</v>
@@ -19170,10 +19170,10 @@
         <v>150</v>
       </c>
       <c r="B1010" s="4" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="F1010" s="3" t="s">
         <v>1090</v>
@@ -19254,10 +19254,10 @@
         <v>150</v>
       </c>
       <c r="B1016" s="4" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="C1016" s="4" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="F1016" s="3" t="s">
         <v>779</v>
@@ -19324,10 +19324,10 @@
         <v>150</v>
       </c>
       <c r="B1021" s="4" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="C1021" s="4" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="F1021" s="3" t="s">
         <v>1099</v>
@@ -19464,10 +19464,10 @@
         <v>150</v>
       </c>
       <c r="B1031" s="4" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="C1031" s="4" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="F1031" s="3" t="s">
         <v>1101</v>
@@ -19492,10 +19492,10 @@
         <v>150</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="C1033" s="4" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="F1033" s="3" t="s">
         <v>1079</v>
@@ -19520,10 +19520,10 @@
         <v>150</v>
       </c>
       <c r="B1035" s="4" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1035" s="4" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="F1035" s="3" t="s">
         <v>538</v>
@@ -19576,10 +19576,10 @@
         <v>150</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="F1039" s="3" t="s">
         <v>1067</v>
@@ -19604,10 +19604,10 @@
         <v>150</v>
       </c>
       <c r="B1041" s="4" t="s">
-        <v>1188</v>
+        <v>1214</v>
       </c>
       <c r="C1041" s="4" t="s">
-        <v>1188</v>
+        <v>1214</v>
       </c>
       <c r="F1041" s="3" t="s">
         <v>343</v>
@@ -19800,10 +19800,10 @@
         <v>150</v>
       </c>
       <c r="B1055" s="4" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="C1055" s="4" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="F1055" s="3" t="s">
         <v>1068</v>
@@ -19856,10 +19856,10 @@
         <v>150</v>
       </c>
       <c r="B1059" s="4" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="C1059" s="4" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="F1059" s="3" t="s">
         <v>1069</v>
@@ -19898,10 +19898,10 @@
         <v>150</v>
       </c>
       <c r="B1062" s="4" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="C1062" s="4" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="F1062" s="3" t="s">
         <v>318</v>
@@ -19912,10 +19912,10 @@
         <v>150</v>
       </c>
       <c r="B1063" s="4" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="C1063" s="4" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="F1063" s="3" t="s">
         <v>391</v>
@@ -19982,10 +19982,10 @@
         <v>150</v>
       </c>
       <c r="B1068" s="4" t="s">
-        <v>1193</v>
+        <v>1215</v>
       </c>
       <c r="C1068" s="4" t="s">
-        <v>1193</v>
+        <v>1215</v>
       </c>
       <c r="F1068" s="3" t="s">
         <v>429</v>
@@ -20024,10 +20024,10 @@
         <v>150</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="C1071" s="4" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="F1071" s="3" t="s">
         <v>1042</v>
@@ -20038,10 +20038,10 @@
         <v>150</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="F1072" s="3" t="s">
         <v>1070</v>
@@ -20122,10 +20122,10 @@
         <v>150</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="C1078" s="4" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="F1078" s="3" t="s">
         <v>1062</v>
@@ -20206,10 +20206,10 @@
         <v>150</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="F1084" s="3" t="s">
         <v>887</v>
@@ -20220,10 +20220,10 @@
         <v>150</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="C1085" s="4" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="F1085" s="3" t="s">
         <v>887</v>
@@ -20262,10 +20262,10 @@
         <v>150</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="C1088" s="4" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="F1088" s="3" t="s">
         <v>1108</v>
@@ -26936,7 +26936,7 @@
         <v>201</v>
       </c>
       <c r="G1565" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1566" spans="1:7">
@@ -27090,7 +27090,7 @@
         <v>12</v>
       </c>
       <c r="G1576" s="3" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1577" spans="1:7">
@@ -27132,7 +27132,7 @@
         <v>168</v>
       </c>
       <c r="G1579" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1580" spans="1:7">
@@ -27146,7 +27146,7 @@
         <v>188</v>
       </c>
       <c r="G1580" s="3" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1581" spans="1:7">
@@ -27300,7 +27300,7 @@
         <v>296</v>
       </c>
       <c r="G1591" s="3" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1592" spans="1:7">
@@ -27328,7 +27328,7 @@
         <v>16</v>
       </c>
       <c r="G1593" s="3" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1594" spans="1:7">
@@ -27342,7 +27342,7 @@
         <v>228</v>
       </c>
       <c r="G1594" s="3" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1595" spans="1:7">
@@ -27608,7 +27608,7 @@
         <v>1</v>
       </c>
       <c r="G1613" s="3" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1614" spans="1:7">
@@ -27622,7 +27622,7 @@
         <v>9</v>
       </c>
       <c r="G1614" s="3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1615" spans="1:7">
@@ -27734,7 +27734,7 @@
         <v>182</v>
       </c>
       <c r="G1622" s="3" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1623" spans="1:7">
@@ -27860,7 +27860,7 @@
         <v>195</v>
       </c>
       <c r="G1631" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1632" spans="1:7">
@@ -27874,7 +27874,7 @@
         <v>185</v>
       </c>
       <c r="G1632" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1633" spans="1:7">
@@ -27902,7 +27902,7 @@
         <v>181</v>
       </c>
       <c r="G1634" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1635" spans="1:7">
@@ -27986,7 +27986,7 @@
         <v>165</v>
       </c>
       <c r="G1640" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1641" spans="1:7">
@@ -28070,7 +28070,7 @@
         <v>205</v>
       </c>
       <c r="G1646" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1647" spans="1:7">
@@ -28176,13 +28176,13 @@
         <v>151</v>
       </c>
       <c r="B1654" s="35" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="C1654" s="35" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="G1654" s="3" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1655" spans="1:7">
@@ -28190,13 +28190,13 @@
         <v>151</v>
       </c>
       <c r="B1655" s="35" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="C1655" s="35" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="G1655" s="3" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1656" spans="1:7">
@@ -28252,7 +28252,7 @@
         <v>174</v>
       </c>
       <c r="G1659" s="3" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1660" spans="1:7">
@@ -28294,7 +28294,7 @@
         <v>98</v>
       </c>
       <c r="G1662" s="3" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1663" spans="1:7">
@@ -28364,7 +28364,7 @@
         <v>100</v>
       </c>
       <c r="G1667" s="3" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1668" spans="1:7">
@@ -28476,7 +28476,7 @@
         <v>225</v>
       </c>
       <c r="G1675" s="3" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1676" spans="1:7">
@@ -28512,13 +28512,13 @@
         <v>151</v>
       </c>
       <c r="B1678" s="35" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="C1678" s="35" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="G1678" s="3" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1679" spans="1:7">
@@ -28722,13 +28722,13 @@
         <v>151</v>
       </c>
       <c r="B1693" s="36" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C1693" s="36" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="G1693" s="3" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1694" spans="1:7">
@@ -28784,7 +28784,7 @@
         <v>25</v>
       </c>
       <c r="G1697" s="3" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1698" spans="1:7">
@@ -28812,7 +28812,7 @@
         <v>40</v>
       </c>
       <c r="G1699" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1700" spans="1:7">
@@ -28952,7 +28952,7 @@
         <v>113</v>
       </c>
       <c r="G1709" s="3" t="s">
-        <v>1132</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1710" spans="1:7">
@@ -28994,7 +28994,7 @@
         <v>2</v>
       </c>
       <c r="G1712" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1713" spans="1:7">
@@ -29106,7 +29106,7 @@
         <v>45</v>
       </c>
       <c r="G1720" s="3" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1721" spans="1:7">
@@ -29120,7 +29120,7 @@
         <v>8</v>
       </c>
       <c r="G1721" s="3" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1722" spans="1:7">
@@ -29134,7 +29134,7 @@
         <v>22</v>
       </c>
       <c r="G1722" s="3" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1723" spans="1:7">
@@ -29148,7 +29148,7 @@
         <v>44</v>
       </c>
       <c r="G1723" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1724" spans="1:7">
@@ -29162,7 +29162,7 @@
         <v>13</v>
       </c>
       <c r="G1724" s="3" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1725" spans="1:7">
@@ -29190,7 +29190,7 @@
         <v>58</v>
       </c>
       <c r="G1726" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1727" spans="1:7">
@@ -29246,7 +29246,7 @@
         <v>16</v>
       </c>
       <c r="G1730" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1731" spans="1:7">
@@ -29330,7 +29330,7 @@
         <v>19</v>
       </c>
       <c r="G1736" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1737" spans="1:7">
@@ -29736,7 +29736,7 @@
         <v>1</v>
       </c>
       <c r="G1765" s="3" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1766" spans="1:7">
@@ -29764,7 +29764,7 @@
         <v>297</v>
       </c>
       <c r="G1767" s="3" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1768" spans="1:7">
@@ -29778,7 +29778,7 @@
         <v>292</v>
       </c>
       <c r="G1768" s="3" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1769" spans="1:7">
@@ -29820,7 +29820,7 @@
         <v>116</v>
       </c>
       <c r="G1771" s="3" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1772" spans="1:7">
@@ -29848,7 +29848,7 @@
         <v>287</v>
       </c>
       <c r="G1773" s="3" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1774" spans="1:7">
@@ -29904,7 +29904,7 @@
         <v>54</v>
       </c>
       <c r="G1777" s="3" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1778" spans="1:7">
@@ -30100,7 +30100,7 @@
         <v>34</v>
       </c>
       <c r="G1791" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1792" spans="1:7">
@@ -30436,7 +30436,7 @@
         <v>72</v>
       </c>
       <c r="G1815" s="3" t="s">
-        <v>1178</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1816" spans="1:7">
@@ -30604,7 +30604,7 @@
         <v>11</v>
       </c>
       <c r="G1827" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1828" spans="1:7">
@@ -30618,7 +30618,7 @@
         <v>13</v>
       </c>
       <c r="G1828" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1829" spans="1:7">
@@ -30660,7 +30660,7 @@
         <v>2</v>
       </c>
       <c r="G1831" s="29" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1832" spans="1:7">
@@ -30870,7 +30870,7 @@
         <v>54</v>
       </c>
       <c r="G1846" s="29" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1847" spans="1:7">
@@ -30940,7 +30940,7 @@
         <v>68</v>
       </c>
       <c r="G1851" s="29" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1852" spans="1:7">
@@ -30968,7 +30968,7 @@
         <v>37</v>
       </c>
       <c r="G1853" s="29" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1854" spans="1:7">
@@ -31074,10 +31074,10 @@
         <v>151</v>
       </c>
       <c r="B1861" s="42" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="C1861" s="42" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="G1861" s="29" t="s">
         <v>909</v>
@@ -31312,13 +31312,13 @@
         <v>151</v>
       </c>
       <c r="B1878" s="42" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="C1878" s="42" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="G1878" s="29" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1879" spans="1:7">
@@ -31326,13 +31326,13 @@
         <v>151</v>
       </c>
       <c r="B1879" s="42" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="C1879" s="42" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="G1879" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1880" spans="1:7">
@@ -31340,13 +31340,13 @@
         <v>151</v>
       </c>
       <c r="B1880" s="42" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="C1880" s="42" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="G1880" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1881" spans="1:7">
@@ -31354,13 +31354,13 @@
         <v>151</v>
       </c>
       <c r="B1881" s="42" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="C1881" s="42" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="G1881" s="29" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1882" spans="1:7">
@@ -31368,13 +31368,13 @@
         <v>151</v>
       </c>
       <c r="B1882" s="42" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="C1882" s="42" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="G1882" s="29" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1883" spans="1:7">
@@ -31382,13 +31382,13 @@
         <v>151</v>
       </c>
       <c r="B1883" s="42" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="C1883" s="42" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="G1883" s="29" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1884" spans="1:7">
@@ -31396,13 +31396,13 @@
         <v>151</v>
       </c>
       <c r="B1884" s="42" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C1884" s="42" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="G1884" s="29" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1885" spans="1:7">
@@ -31410,13 +31410,13 @@
         <v>151</v>
       </c>
       <c r="B1885" s="42" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="C1885" s="42" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="G1885" s="29" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1886" spans="1:7">
@@ -31424,10 +31424,10 @@
         <v>151</v>
       </c>
       <c r="B1886" s="42" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="C1886" s="42" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="G1886" s="29" t="s">
         <v>317</v>
@@ -31444,7 +31444,7 @@
         <v>67</v>
       </c>
       <c r="G1887" s="29" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1888" spans="1:7">
@@ -31458,7 +31458,7 @@
         <v>53</v>
       </c>
       <c r="G1888" s="29" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1889" spans="1:7">
@@ -31486,7 +31486,7 @@
         <v>60</v>
       </c>
       <c r="G1890" s="29" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1891" spans="1:7">
@@ -31626,7 +31626,7 @@
         <v>30</v>
       </c>
       <c r="G1900" s="29" t="s">
-        <v>1188</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1901" spans="1:7">
@@ -31836,7 +31836,7 @@
         <v>46</v>
       </c>
       <c r="G1915" s="29" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1916" spans="1:7">
@@ -31850,7 +31850,7 @@
         <v>54</v>
       </c>
       <c r="G1916" s="29" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1917" spans="1:7">
@@ -31864,7 +31864,7 @@
         <v>13</v>
       </c>
       <c r="G1917" s="29" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1918" spans="1:7">
@@ -31878,7 +31878,7 @@
         <v>20</v>
       </c>
       <c r="G1918" s="29" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1919" spans="1:7">
@@ -31892,7 +31892,7 @@
         <v>24</v>
       </c>
       <c r="G1919" s="29" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1920" spans="1:7">
@@ -31906,7 +31906,7 @@
         <v>28</v>
       </c>
       <c r="G1920" s="29" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1921" spans="1:7">
@@ -31920,7 +31920,7 @@
         <v>39</v>
       </c>
       <c r="G1921" s="29" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1922" spans="1:7">
@@ -31990,7 +31990,7 @@
         <v>35</v>
       </c>
       <c r="G1926" s="29" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1927" spans="1:7">
@@ -32004,7 +32004,7 @@
         <v>9</v>
       </c>
       <c r="G1927" s="29" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1928" spans="1:7">
@@ -32018,7 +32018,7 @@
         <v>50</v>
       </c>
       <c r="G1928" s="29" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1929" spans="1:7">
@@ -32032,7 +32032,7 @@
         <v>19</v>
       </c>
       <c r="G1929" s="29" t="s">
-        <v>1136</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1930" spans="1:7">
@@ -32256,7 +32256,7 @@
         <v>8</v>
       </c>
       <c r="G1945" s="29" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1946" spans="1:7">
@@ -32382,7 +32382,7 @@
         <v>34</v>
       </c>
       <c r="G1954" s="29" t="s">
-        <v>1110</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1955" spans="1:7">
@@ -32522,7 +32522,7 @@
         <v>66</v>
       </c>
       <c r="G1964" s="29" t="s">
-        <v>1111</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1965" spans="1:7">
@@ -32578,7 +32578,7 @@
         <v>84</v>
       </c>
       <c r="G1968" s="29" t="s">
-        <v>1193</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1969" spans="1:7">
@@ -32592,7 +32592,7 @@
         <v>87</v>
       </c>
       <c r="G1969" s="29" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1970" spans="1:7">
@@ -32620,7 +32620,7 @@
         <v>76</v>
       </c>
       <c r="G1971" s="29" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1972" spans="1:7">
@@ -32802,7 +32802,7 @@
         <v>86</v>
       </c>
       <c r="G1984" s="29" t="s">
-        <v>1162</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1985" spans="1:7">
@@ -32886,7 +32886,7 @@
         <v>21</v>
       </c>
       <c r="G1990" s="29" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1991" spans="1:7">
@@ -32914,7 +32914,7 @@
         <v>71</v>
       </c>
       <c r="G1992" s="29" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1993" spans="1:7">
@@ -32928,7 +32928,7 @@
         <v>73</v>
       </c>
       <c r="G1993" s="29" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1994" spans="1:7">
@@ -32942,7 +32942,7 @@
         <v>77</v>
       </c>
       <c r="G1994" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1995" spans="1:7">
@@ -32956,7 +32956,7 @@
         <v>78</v>
       </c>
       <c r="G1995" s="29" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1996" spans="1:7">
@@ -32970,7 +32970,7 @@
         <v>80</v>
       </c>
       <c r="G1996" s="29" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1997" spans="1:7">
@@ -33166,7 +33166,7 @@
         <v>33</v>
       </c>
       <c r="G2010" s="29" t="s">
-        <v>1146</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="2011" spans="1:7">
@@ -33348,7 +33348,7 @@
         <v>70</v>
       </c>
       <c r="G2023" s="29" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2024" spans="1:7">
@@ -33446,7 +33446,7 @@
         <v>20</v>
       </c>
       <c r="G2030" s="29" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="2031" spans="1:7">
@@ -34160,7 +34160,7 @@
         <v>64</v>
       </c>
       <c r="G2081" s="3" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2082" spans="1:7">
@@ -34216,7 +34216,7 @@
         <v>28</v>
       </c>
       <c r="G2085" s="3" t="s">
-        <v>1143</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2086" spans="1:7">
@@ -34275,7 +34275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -34303,10 +34303,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
